--- a/thirtyDays.xlsx
+++ b/thirtyDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spent\Desktop\psychic-spoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5937CC-C9CF-47F7-9376-A59445969FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7C138-B3E9-417D-A8B3-B71B5C3C92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54264CE3-D434-4F2A-820B-D1CF10ABE953}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="290">
   <si>
     <t>Difficulty</t>
   </si>
@@ -901,16 +901,27 @@
   </si>
   <si>
     <t>Array, String, Depth-First Search, Breadth-First Search, Union Find, Graph, Shortest Path</t>
+  </si>
+  <si>
+    <t>Did rec+mem, need dp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -951,16 +962,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1273,2038 +1287,2047 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29474C3B-101E-467B-8729-5CF064C7B3EA}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.55776988999999999</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>92.5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.55259658700000003</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>92.5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.45214544899999998</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>92.5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.62319913999999998</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>92.5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.56196294099999999</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>88.8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.26577102800000002</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8">
         <v>86.7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.35846114800000001</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>79.2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.46225072299999997</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>79.2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.490672785</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>79.2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.36936168600000002</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>79.2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.46828731800000001</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>79.2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.65101928799999997</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>76.2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.64565982799999999</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>72.7</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.56774190800000002</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>72.7</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.41503201099999998</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>72.7</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.49395267700000001</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>72.7</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.70928814100000004</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>72.7</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.66754993500000004</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>72.7</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.57211710000000005</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>68.7</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.46699730299999997</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>68.7</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.52141698199999997</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>68.7</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.42322816699999999</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>68.7</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.45350733599999998</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>68.7</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.52304968799999996</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>68.7</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.43814589999999998</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>64</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.56445102000000003</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>81</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>64</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.77901645200000003</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>86</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>64</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.69500234000000005</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>87</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>64</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.49444120200000002</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>89</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>64</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.77132867199999999</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>92</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>64</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.52289551599999995</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>95</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>97</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>64</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.46495443400000003</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>98</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>64</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.65772835299999999</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>101</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>103</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>64</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.46608986400000002</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>104</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>64</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.42837221399999997</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>106</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>64</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.43057736699999999</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>108</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>64</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.56618518399999995</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>111</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>64</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.54991857899999996</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>114</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>64</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.66476345599999997</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>117</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>64</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.74370535000000004</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>120</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>58.2</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.59277175699999995</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>123</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>58.2</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.68619312799999999</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>126</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>58.2</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.79021649999999999</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>129</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>131</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>58.2</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.62804009500000002</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>132</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>58.2</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.45589627900000002</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>134</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>58.2</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.56460915899999997</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>137</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>58.2</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.19229423500000001</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>140</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>142</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>58.2</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.72117490299999998</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>143</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>144</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>58.2</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.64866269499999996</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>145</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>146</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>58.2</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.59224550300000001</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>147</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>149</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>58.2</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.52099783099999997</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>150</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>152</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>58.2</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.45266914499999999</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>153</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>155</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>58.2</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.58789741299999998</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>156</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>158</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>58.2</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.67977001199999998</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>159</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
         <v>161</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>50.9</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.50162143299999995</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>162</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>163</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>50.9</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0.65740280200000001</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>164</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>40</v>
       </c>
       <c r="B58" t="s">
         <v>166</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>50.9</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>0.54417995100000005</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>167</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>169</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>50.9</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.63236375499999997</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>170</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>172</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>50.9</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0.67779946099999999</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>173</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
         <v>175</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>50.9</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0.74674700900000002</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>176</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
         <v>178</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>50.9</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>0.57782825699999996</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>179</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>181</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>50.9</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>0.68655000600000005</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>182</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>184</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>50.9</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.30308916899999999</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>185</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>50.9</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>0.75968824000000001</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>187</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>189</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>50.9</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>0.77021549199999995</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>190</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>50.9</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>0.67195282700000003</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>192</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>40</v>
       </c>
       <c r="B68" t="s">
         <v>193</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>50.9</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>0.37326302700000002</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>194</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>196</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>50.9</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>0.74512473800000001</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>197</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
         <v>199</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>50.9</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>0.43726999700000002</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>200</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
       <c r="B71" t="s">
         <v>201</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>50.9</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>0.47604152700000002</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>202</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
       <c r="B72" t="s">
         <v>204</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>50.9</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>0.42811808800000001</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>205</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>207</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>50.9</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>0.622767772</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>208</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>40</v>
       </c>
       <c r="B74" t="s">
         <v>210</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>50.9</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>0.34354789499999999</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>211</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>213</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>50.9</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0.53423502899999997</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>214</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>216</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>50.9</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>0.575339131</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>217</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>218</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>50.9</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>0.39479203800000001</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>219</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
       <c r="B78" t="s">
         <v>220</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>50.9</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>0.34380387899999998</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>221</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>40</v>
       </c>
       <c r="B79" t="s">
         <v>223</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>50.9</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>0.63908717800000003</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>224</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>226</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>50.9</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>0.62835792000000001</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>227</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>229</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>50.9</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>0.58091487799999997</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>230</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>232</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>50.9</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>0.49234253100000003</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>233</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>234</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>50.9</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>0.48987225000000001</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>235</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>237</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>40.6</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>0.53939735</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>238</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>13</v>
       </c>
       <c r="B85" t="s">
         <v>240</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>40.6</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>0.71345741399999996</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>241</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86" t="s">
         <v>243</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>40.6</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>0.58072623300000004</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>244</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>246</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>40.6</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>0.74079345100000005</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>247</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
       <c r="B88" t="s">
         <v>249</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>40.6</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>0.56134283900000004</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>250</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>13</v>
       </c>
       <c r="B89" t="s">
         <v>252</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>40.6</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>0.68647380599999996</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>253</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
         <v>254</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>40.6</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>0.72896464900000002</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>255</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" t="s">
         <v>257</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>40.6</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>0.87075000300000005</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>258</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92" t="s">
         <v>260</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>40.6</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>0.912766458</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>261</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>13</v>
       </c>
       <c r="B93" t="s">
         <v>262</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>40.6</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.39944772699999997</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>263</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>40</v>
       </c>
       <c r="B94" t="s">
         <v>265</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>40.6</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>0.47377653199999997</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>266</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>40</v>
       </c>
       <c r="B95" t="s">
         <v>268</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>40.6</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.48169489399999998</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>269</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
       <c r="B96" t="s">
         <v>271</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>40.6</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>0.61152499100000002</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>272</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>13</v>
       </c>
       <c r="B97" t="s">
         <v>274</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>40.6</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>0.70596589499999995</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>275</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>13</v>
       </c>
       <c r="B98" t="s">
         <v>277</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>40.6</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>0.45476215199999998</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>278</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>13</v>
       </c>
       <c r="B99" t="s">
         <v>280</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>40.6</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>0.341169059</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>281</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
       <c r="B100" t="s">
         <v>283</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>40.6</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>0.67939571600000004</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>284</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>13</v>
       </c>
       <c r="B101" t="s">
         <v>286</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>40.6</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>0.63146950899999998</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>287</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>288</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{BB08051F-BA68-4AA4-9688-7CC8ACE2A308}"/>
+    <hyperlink ref="F19" r:id="rId2" xr:uid="{417576F4-6586-41E5-A33A-71B85B856D31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/thirtyDays.xlsx
+++ b/thirtyDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spent\Desktop\psychic-spoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7C138-B3E9-417D-A8B3-B71B5C3C92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C3189-8947-4771-BE86-E3BAEE368CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54264CE3-D434-4F2A-820B-D1CF10ABE953}"/>
   </bookViews>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29474C3B-101E-467B-8729-5CF064C7B3EA}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2884,7 +2884,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B80" t="s">

--- a/thirtyDays.xlsx
+++ b/thirtyDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spent\Desktop\psychic-spoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C3189-8947-4771-BE86-E3BAEE368CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1546CB-C8C9-4A06-9AE6-B85506195C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54264CE3-D434-4F2A-820B-D1CF10ABE953}"/>
   </bookViews>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29474C3B-101E-467B-8729-5CF064C7B3EA}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2464,7 +2464,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B59" t="s">
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
@@ -2924,7 +2924,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">

--- a/thirtyDays.xlsx
+++ b/thirtyDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spent\Desktop\psychic-spoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1546CB-C8C9-4A06-9AE6-B85506195C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565FEEF-9F53-4D34-8A1F-F75BCF3007B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54264CE3-D434-4F2A-820B-D1CF10ABE953}"/>
   </bookViews>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29474C3B-101E-467B-8729-5CF064C7B3EA}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
